--- a/data/GameList.xlsx
+++ b/data/GameList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betty\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/295f9102a295be7e/문서/GitHub/boardka-recommender/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4062F188-5A2A-481C-AE62-04963E0288CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{4062F188-5A2A-481C-AE62-04963E0288CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B9E062C-9175-40DE-8221-97EC34DA3F29}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$39</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>이름</t>
   </si>
@@ -78,9 +78,6 @@
     <t>루미큐브</t>
   </si>
   <si>
-    <t>마구야구왕</t>
-  </si>
-  <si>
     <t>마이티</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>우노</t>
   </si>
   <si>
-    <t>커피러쉬</t>
-  </si>
-  <si>
     <t>쿠</t>
   </si>
   <si>
@@ -167,6 +161,284 @@
   </si>
   <si>
     <t>난이도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전략</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엔진빌딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="3"/>
+      </rPr>
+      <t>, sf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유로게임</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 행동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 추론</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 덱빌딩, 주사위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략, 협력, 주사위, 모험, 스토리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략, 카드, 퍼즐, 협력, 스토리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 주사위, 영향력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략, 클라이밍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 트릭테이킹, 카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 카드, 블러핑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 주사위, 경제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전략, 엔진빌딩, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="3"/>
+      </rPr>
+      <t>sf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경제</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략, 카드, 경제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전략</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>협력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주사위</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파티, 트릭테이킹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카드</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 카드, 경제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피러시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 추론, 주사위, 카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 카드, 행동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략, 카드, 주사위, 영향력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략, 카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 블러핑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략, sf, 주사위, 4dx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 카드, 클라이밍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +446,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +471,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -278,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -295,6 +587,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G582"/>
+  <dimension ref="A1:H581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -528,9 +829,9 @@
     <col min="8" max="21" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -548,10 +849,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -571,8 +875,11 @@
       <c r="G2" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H2" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -592,11 +899,14 @@
       <c r="G3" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H3" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -613,11 +923,14 @@
       <c r="G4" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H4" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -634,11 +947,14 @@
       <c r="G5" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H5" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -655,11 +971,14 @@
       <c r="G6" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H6" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -676,8 +995,11 @@
       <c r="G7" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H7" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -697,8 +1019,11 @@
       <c r="G8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H8" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -718,8 +1043,11 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H9" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -739,8 +1067,11 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H10" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -760,8 +1091,11 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H11" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -781,8 +1115,11 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H12" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
@@ -802,8 +1139,11 @@
       <c r="G13" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H13" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>15</v>
@@ -823,8 +1163,11 @@
       <c r="G14" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H14" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -833,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1">
         <v>30</v>
@@ -842,19 +1185,22 @@
         <v>30</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1">
         <v>30</v>
@@ -863,10 +1209,13 @@
         <v>30</v>
       </c>
       <c r="G16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>19</v>
@@ -875,40 +1224,46 @@
         <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H17" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="F18" s="1">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="G18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>22</v>
@@ -920,37 +1275,43 @@
         <v>4</v>
       </c>
       <c r="E19" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1">
         <v>120</v>
       </c>
       <c r="G19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G20" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>25</v>
@@ -959,19 +1320,22 @@
         <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G21" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H21" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>26</v>
@@ -980,19 +1344,22 @@
         <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1">
         <v>30</v>
       </c>
       <c r="F22" s="1">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G22" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>27</v>
@@ -1001,7 +1368,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1">
         <v>30</v>
@@ -1012,74 +1379,86 @@
       <c r="G23" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H23" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
       </c>
       <c r="D24" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F24" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E25" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F26" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -1088,19 +1467,22 @@
         <v>6</v>
       </c>
       <c r="E27" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F27" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -1109,184 +1491,211 @@
         <v>6</v>
       </c>
       <c r="E28" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F28" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G28" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
       </c>
       <c r="D29" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="F29" s="1">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="G29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E30" s="1">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F30" s="1">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G30" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
       </c>
       <c r="D31" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E31" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F31" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G31" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
       </c>
       <c r="D32" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E32" s="1">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="F32" s="1">
-        <v>60</v>
+        <v>960</v>
       </c>
       <c r="G32" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H32" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1">
-        <v>960</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E34" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F34" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
       </c>
       <c r="D35" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F35" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G35" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1">
         <v>4</v>
       </c>
       <c r="D36" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E36" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F36" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H36" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>36</v>
@@ -1295,40 +1704,46 @@
         <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F37" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" customHeight="1">
+      <c r="H37" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>
       </c>
       <c r="D38" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F38" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="16.5" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>39</v>
@@ -1337,47 +1752,30 @@
         <v>4</v>
       </c>
       <c r="D39" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F39" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="1">
-        <v>4</v>
-      </c>
-      <c r="D40" s="1">
-        <v>10</v>
-      </c>
-      <c r="E40" s="1">
-        <v>10</v>
-      </c>
-      <c r="F40" s="1">
-        <v>10</v>
-      </c>
-      <c r="G40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="16.5" customHeight="1"/>
-    <row r="42" spans="1:7" ht="16.5" customHeight="1"/>
-    <row r="43" spans="1:7" ht="16.5" customHeight="1"/>
-    <row r="44" spans="1:7" ht="16.5" customHeight="1"/>
-    <row r="45" spans="1:7" ht="16.5" customHeight="1"/>
-    <row r="46" spans="1:7" ht="16.5" customHeight="1"/>
-    <row r="47" spans="1:7" ht="16.5" customHeight="1"/>
-    <row r="48" spans="1:7" ht="16.5" customHeight="1"/>
+      <c r="H39" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="41" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="42" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="43" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="44" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="45" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="46" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="47" spans="1:8" ht="16.5" customHeight="1"/>
+    <row r="48" spans="1:8" ht="16.5" customHeight="1"/>
     <row r="49" ht="16.5" customHeight="1"/>
     <row r="50" ht="16.5" customHeight="1"/>
     <row r="51" ht="16.5" customHeight="1"/>
@@ -1911,9 +2309,8 @@
     <row r="579" ht="16.5" customHeight="1"/>
     <row r="580" ht="16.5" customHeight="1"/>
     <row r="581" ht="16.5" customHeight="1"/>
-    <row r="582" ht="16.5" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:G40" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H39" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/data/GameList.xlsx
+++ b/data/GameList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/295f9102a295be7e/문서/GitHub/boardka-recommender/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{4062F188-5A2A-481C-AE62-04963E0288CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B9E062C-9175-40DE-8221-97EC34DA3F29}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{4062F188-5A2A-481C-AE62-04963E0288CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D285A3D4-8E19-4D8B-BA63-C508B5F4467E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,6 +165,219 @@
   </si>
   <si>
     <t>tags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 행동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 추론</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 덱빌딩, 주사위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략, 협력, 주사위, 모험, 스토리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략, 카드, 퍼즐, 협력, 스토리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 주사위, 영향력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략, 클라이밍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 트릭테이킹, 카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 카드, 블러핑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 주사위, 경제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">전략, 엔진빌딩, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="3"/>
+      </rPr>
+      <t>sf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경제</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전략</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>협력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주사위</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파티, 트릭테이킹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카드</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 카드, 경제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피러시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 추론, 주사위, 카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 카드, 행동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략, 카드, 주사위, 영향력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략, 카드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 블러핑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략, sf, 주사위, 4dx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티, 카드, 클라이밍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략, 카드, 경제, 유로게임</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -226,72 +439,6 @@
       </rPr>
       <t>유로게임</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파티, 행동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파티, 추론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파티, 덱빌딩, 주사위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전략, 협력, 주사위, 모험, 스토리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전략, 카드, 퍼즐, 협력, 스토리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파티, 주사위, 영향력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전략, 클라이밍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파티, 카드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파티, 트릭테이킹, 카드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파티, 카드, 블러핑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파티, 주사위, 경제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">전략, 엔진빌딩, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="3"/>
-      </rPr>
-      <t>sf</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -310,135 +457,8 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>경제</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전략, 카드, 경제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전략</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>협력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주사위</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파티, 트릭테이킹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>카드</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파티, 카드, 경제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>커피러시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파티</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파티, 추론, 주사위, 카드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파티, 카드, 행동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전략, 카드, 주사위, 영향력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전략, 카드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파티, 블러핑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전략, sf, 주사위, 4dx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파티, 카드, 클라이밍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -613,6 +633,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -815,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H581"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1"/>
@@ -876,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
@@ -900,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1">
@@ -924,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1">
@@ -948,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1">
@@ -972,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1">
@@ -996,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1">
@@ -1020,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1">
@@ -1044,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1">
@@ -1068,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1">
@@ -1092,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1">
@@ -1116,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1">
@@ -1140,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1">
@@ -1164,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" customHeight="1">
@@ -1188,7 +1212,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1">
@@ -1212,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" customHeight="1">
@@ -1236,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1">
@@ -1260,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" customHeight="1">
@@ -1284,7 +1308,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1">
@@ -1308,7 +1332,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5" customHeight="1">
@@ -1332,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5" customHeight="1">
@@ -1356,7 +1380,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1">
@@ -1380,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5" customHeight="1">
@@ -1404,13 +1428,13 @@
         <v>1</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -1428,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1">
@@ -1452,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1">
@@ -1476,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5" customHeight="1">
@@ -1500,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1">
@@ -1524,7 +1548,7 @@
         <v>5</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
@@ -1548,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
@@ -1572,7 +1596,7 @@
         <v>5</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1">
@@ -1596,7 +1620,7 @@
         <v>5</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.5" customHeight="1">
@@ -1620,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" customHeight="1">
@@ -1644,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" customHeight="1">
@@ -1668,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" customHeight="1">
@@ -1692,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" customHeight="1">
@@ -1716,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" customHeight="1">
@@ -1740,7 +1764,7 @@
         <v>3</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" customHeight="1">
@@ -1764,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5" customHeight="1"/>
